--- a/Punto 4/punto 4.xlsx
+++ b/Punto 4/punto 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Test_tuya\Punto 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5C73C-CE49-41ED-930D-58E929DC388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800830F8-AB12-46AA-B86E-33E603A85FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5703B77-8BDB-46F0-874D-BB5D31D135D2}"/>
   </bookViews>
